--- a/convertExcel/bin/Debug/myNewSpreadsheet.xlsx
+++ b/convertExcel/bin/Debug/myNewSpreadsheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc8cdb0c7804247d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R31d1f6095c28454a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/convertExcel/bin/Debug/myNewSpreadsheet.xlsx
+++ b/convertExcel/bin/Debug/myNewSpreadsheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R31d1f6095c28454a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf2c6ba0ef7734c25"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/convertExcel/bin/Debug/myNewSpreadsheet.xlsx
+++ b/convertExcel/bin/Debug/myNewSpreadsheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf2c6ba0ef7734c25"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re5ec2abc0b84488f"/>
   </x:sheets>
 </x:workbook>
 </file>
